--- a/DSA/FINAL450.xlsx
+++ b/DSA/FINAL450.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Competitive-Coding\450 DSA Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC08DE6E-B303-431E-842E-D7AE8C3D8A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006C04AB-2D7A-4846-9D47-7D552835ADBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="480">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1436,13 +1435,43 @@
   </si>
   <si>
     <t>IMP Implement only DFS. See BFS and DSU</t>
+  </si>
+  <si>
+    <t>see Garg Vader template</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>see Garg Vader template (BFS and DFS)</t>
+  </si>
+  <si>
+    <t>Imp backtracking. SEE BFS or DFS implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imp implementation of BFS </t>
+  </si>
+  <si>
+    <t>Basic question of DSU. Finding no of connected components using union find</t>
+  </si>
+  <si>
+    <t>Start and end time cannot be the same trick</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>O(n2) is simple solution;   See DSU approach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1511,8 +1540,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1522,6 +1558,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1534,12 +1575,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1565,8 +1607,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1881,31 +1925,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D362" sqref="D362"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="84.796875" customWidth="1"/>
+    <col min="3" max="3" width="22.09765625" customWidth="1"/>
+    <col min="4" max="4" width="79.5" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.6">
+    <row r="1" spans="1:5" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="B2" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21">
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1918,13 +1963,16 @@
       <c r="D4" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21">
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21">
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21">
+    <row r="8" spans="1:5" ht="21">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21">
+    <row r="9" spans="1:5" ht="21">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1968,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21">
+    <row r="10" spans="1:5" ht="21">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1979,7 +2027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21">
+    <row r="11" spans="1:5" ht="21">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +2038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21">
+    <row r="12" spans="1:5" ht="21">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +2049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21">
+    <row r="13" spans="1:5" ht="21">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -2012,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21">
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +2071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21">
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -2034,7 +2082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21">
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -4242,7 +4290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21">
+    <row r="225" spans="1:5" ht="21">
       <c r="A225" s="4" t="s">
         <v>207</v>
       </c>
@@ -4253,7 +4301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21">
+    <row r="226" spans="1:5" ht="21">
       <c r="A226" s="4" t="s">
         <v>207</v>
       </c>
@@ -4264,7 +4312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21">
+    <row r="227" spans="1:5" ht="21">
       <c r="A227" s="4" t="s">
         <v>207</v>
       </c>
@@ -4275,7 +4323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21">
+    <row r="228" spans="1:5" ht="21">
       <c r="A228" s="4" t="s">
         <v>207</v>
       </c>
@@ -4286,7 +4334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21">
+    <row r="229" spans="1:5" ht="21">
       <c r="A229" s="4" t="s">
         <v>207</v>
       </c>
@@ -4297,7 +4345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21">
+    <row r="230" spans="1:5" ht="21">
       <c r="A230" s="4" t="s">
         <v>207</v>
       </c>
@@ -4308,7 +4356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21">
+    <row r="231" spans="1:5" ht="21">
       <c r="A231" s="4" t="s">
         <v>207</v>
       </c>
@@ -4319,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21">
+    <row r="232" spans="1:5" ht="21">
       <c r="A232" s="4" t="s">
         <v>207</v>
       </c>
@@ -4330,7 +4378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21">
+    <row r="233" spans="1:5" ht="21">
       <c r="A233" s="4" t="s">
         <v>207</v>
       </c>
@@ -4341,7 +4389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21">
+    <row r="234" spans="1:5" ht="21">
       <c r="A234" s="4" t="s">
         <v>207</v>
       </c>
@@ -4352,7 +4400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21">
+    <row r="235" spans="1:5" ht="21">
       <c r="A235" s="4" t="s">
         <v>207</v>
       </c>
@@ -4363,37 +4411,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21">
+    <row r="236" spans="1:5" ht="21">
       <c r="B236" s="6"/>
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="1:3" ht="21">
+    <row r="237" spans="1:5" ht="21">
       <c r="B237" s="6"/>
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
+    <row r="238" spans="1:5" ht="21">
       <c r="A238" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C238" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="21">
+      <c r="C238" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D238" t="s">
+        <v>476</v>
+      </c>
+      <c r="E238" s="11"/>
+    </row>
+    <row r="239" spans="1:5" ht="21">
       <c r="A239" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C239" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="21">
+      <c r="C239" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D239" t="s">
+        <v>479</v>
+      </c>
+      <c r="E239" s="11"/>
+    </row>
+    <row r="240" spans="1:5" ht="21">
       <c r="A240" s="4" t="s">
         <v>230</v>
       </c>
@@ -4404,7 +4460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21">
+    <row r="241" spans="1:4" ht="21">
       <c r="A241" s="4" t="s">
         <v>230</v>
       </c>
@@ -4415,7 +4471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21">
+    <row r="242" spans="1:4" ht="21">
       <c r="A242" s="4" t="s">
         <v>230</v>
       </c>
@@ -4426,7 +4482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21">
+    <row r="243" spans="1:4" ht="21">
       <c r="A243" s="4" t="s">
         <v>230</v>
       </c>
@@ -4437,7 +4493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21">
+    <row r="244" spans="1:4" ht="21">
       <c r="A244" s="4" t="s">
         <v>230</v>
       </c>
@@ -4448,7 +4504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21">
+    <row r="245" spans="1:4" ht="21">
       <c r="A245" s="4" t="s">
         <v>230</v>
       </c>
@@ -4459,7 +4515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21">
+    <row r="246" spans="1:4" ht="21">
       <c r="A246" s="4" t="s">
         <v>230</v>
       </c>
@@ -4470,7 +4526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21">
+    <row r="247" spans="1:4" ht="21">
       <c r="A247" s="4" t="s">
         <v>230</v>
       </c>
@@ -4480,8 +4536,11 @@
       <c r="C247" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="21">
+      <c r="D247" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="21">
       <c r="A248" s="4" t="s">
         <v>230</v>
       </c>
@@ -4492,7 +4551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21">
+    <row r="249" spans="1:4" ht="21">
       <c r="A249" s="4" t="s">
         <v>230</v>
       </c>
@@ -4503,7 +4562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21">
+    <row r="250" spans="1:4" ht="21">
       <c r="A250" s="4" t="s">
         <v>230</v>
       </c>
@@ -4514,7 +4573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21">
+    <row r="251" spans="1:4" ht="21">
       <c r="A251" s="4" t="s">
         <v>230</v>
       </c>
@@ -4525,7 +4584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21">
+    <row r="252" spans="1:4" ht="21">
       <c r="A252" s="4" t="s">
         <v>230</v>
       </c>
@@ -4536,7 +4595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21">
+    <row r="253" spans="1:4" ht="21">
       <c r="A253" s="4" t="s">
         <v>230</v>
       </c>
@@ -4547,7 +4606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21">
+    <row r="254" spans="1:4" ht="21">
       <c r="A254" s="4" t="s">
         <v>230</v>
       </c>
@@ -4558,7 +4617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21">
+    <row r="255" spans="1:4" ht="21">
       <c r="A255" s="4" t="s">
         <v>230</v>
       </c>
@@ -4569,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21">
+    <row r="256" spans="1:4" ht="21">
       <c r="A256" s="4" t="s">
         <v>230</v>
       </c>
@@ -5594,7 +5653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="21">
+    <row r="353" spans="1:5" ht="21">
       <c r="A353" s="7" t="s">
         <v>324</v>
       </c>
@@ -5605,15 +5664,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="21">
+    <row r="354" spans="1:5" ht="21">
       <c r="B354" s="6"/>
       <c r="C354" s="3"/>
     </row>
-    <row r="355" spans="1:4" ht="21">
+    <row r="355" spans="1:5" ht="21">
       <c r="B355" s="6"/>
       <c r="C355" s="3"/>
     </row>
-    <row r="356" spans="1:4" ht="21">
+    <row r="356" spans="1:5" ht="21">
       <c r="A356" s="7" t="s">
         <v>343</v>
       </c>
@@ -5624,7 +5683,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="21">
+    <row r="357" spans="1:5" ht="21">
       <c r="A357" s="7" t="s">
         <v>343</v>
       </c>
@@ -5638,7 +5697,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="21">
+    <row r="358" spans="1:5" ht="21">
       <c r="A358" s="7" t="s">
         <v>343</v>
       </c>
@@ -5652,7 +5711,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="21">
+    <row r="359" spans="1:5" ht="21">
       <c r="A359" s="7" t="s">
         <v>343</v>
       </c>
@@ -5666,7 +5725,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="21">
+    <row r="360" spans="1:5" ht="21">
       <c r="A360" s="7" t="s">
         <v>343</v>
       </c>
@@ -5680,40 +5739,49 @@
         <v>469</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="21">
+    <row r="361" spans="1:5" ht="21">
       <c r="A361" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B361" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C361" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" ht="21">
+      <c r="C361" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D361" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="21">
       <c r="A362" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B362" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C362" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="21">
+      <c r="C362" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D362" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="21">
       <c r="A363" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B363" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C363" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" ht="21">
+      <c r="C363" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D363" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="21">
       <c r="A364" s="7" t="s">
         <v>343</v>
       </c>
@@ -5724,18 +5792,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="21">
+    <row r="365" spans="1:5" ht="21">
       <c r="A365" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B365" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C365" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" ht="21">
+      <c r="C365" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D365" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="21">
       <c r="A366" s="7" t="s">
         <v>343</v>
       </c>
@@ -5746,7 +5817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="21">
+    <row r="367" spans="1:5" ht="21">
       <c r="A367" s="7" t="s">
         <v>343</v>
       </c>
@@ -5757,18 +5828,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="21">
+    <row r="368" spans="1:5" ht="21">
       <c r="A368" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B368" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C368" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="21">
+      <c r="C368" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D368" t="s">
+        <v>472</v>
+      </c>
+      <c r="E368" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="21">
       <c r="A369" s="7" t="s">
         <v>343</v>
       </c>
@@ -5779,7 +5856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21">
+    <row r="370" spans="1:4" ht="21">
       <c r="A370" s="7" t="s">
         <v>343</v>
       </c>
@@ -5790,7 +5867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21">
+    <row r="371" spans="1:4" ht="21">
       <c r="A371" s="7" t="s">
         <v>343</v>
       </c>
@@ -5801,7 +5878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21">
+    <row r="372" spans="1:4" ht="21">
       <c r="A372" s="7" t="s">
         <v>343</v>
       </c>
@@ -5812,29 +5889,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21">
+    <row r="373" spans="1:4" ht="21">
       <c r="A373" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B373" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C373" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="21">
+      <c r="C373" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D373" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="21">
       <c r="A374" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B374" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C374" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="21">
+      <c r="C374" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D374" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="21">
       <c r="A375" s="7" t="s">
         <v>343</v>
       </c>
@@ -5845,7 +5928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21">
+    <row r="376" spans="1:4" ht="21">
       <c r="A376" s="7" t="s">
         <v>343</v>
       </c>
@@ -5856,7 +5939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21">
+    <row r="377" spans="1:4" ht="21">
       <c r="A377" s="7" t="s">
         <v>343</v>
       </c>
@@ -5867,7 +5950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21">
+    <row r="378" spans="1:4" ht="21">
       <c r="A378" s="7" t="s">
         <v>343</v>
       </c>
@@ -5878,7 +5961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21">
+    <row r="379" spans="1:4" ht="21">
       <c r="A379" s="7" t="s">
         <v>343</v>
       </c>
@@ -5889,7 +5972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21">
+    <row r="380" spans="1:4" ht="21">
       <c r="A380" s="7" t="s">
         <v>343</v>
       </c>
@@ -5900,7 +5983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21">
+    <row r="381" spans="1:4" ht="21">
       <c r="A381" s="7" t="s">
         <v>343</v>
       </c>
@@ -5911,7 +5994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21">
+    <row r="382" spans="1:4" ht="21">
       <c r="A382" s="7" t="s">
         <v>343</v>
       </c>
@@ -5922,7 +6005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21">
+    <row r="383" spans="1:4" ht="21">
       <c r="A383" s="7" t="s">
         <v>343</v>
       </c>
@@ -5933,7 +6016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21">
+    <row r="384" spans="1:4" ht="21">
       <c r="A384" s="7" t="s">
         <v>343</v>
       </c>
